--- a/src/CJM.xlsx
+++ b/src/CJM.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3420" windowHeight="2670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3420" windowHeight="2670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Этап</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>знать, что застрахован</t>
+  </si>
+  <si>
+    <t>https://digital.alfabank.ru/components/amount</t>
+  </si>
+  <si>
+    <t>https://design.alfabank.ru/platform#logo</t>
+  </si>
+  <si>
+    <t>https://design.alfabank.ru/platform#slogan</t>
+  </si>
+  <si>
+    <t>http://alfapersonal.alfa-bank.kz/view_doc.html?mode=request_create&amp;request_type_id=768614336404564683&amp;request_type_code=&amp;type=&amp;disp_type_selector=&amp;request_object_id=&amp;redirect_mode=&amp;doc_id=6462250749488101879&amp;new=1</t>
+  </si>
+  <si>
+    <t>https://www.behance.net/gallery/84598749/Travel-Planner?tracking_source=search</t>
+  </si>
+  <si>
+    <t>https://alfabank.ru/about/logo/</t>
   </si>
 </sst>
 </file>
@@ -393,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,4 +491,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/CJM.xlsx
+++ b/src/CJM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3420" windowHeight="2670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3420" windowHeight="2670"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Этап</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Взаимодействие с сервисом</t>
   </si>
   <si>
-    <t>Получение полюса</t>
-  </si>
-  <si>
-    <t>Получить страховой полюс</t>
-  </si>
-  <si>
     <t>Найти страховую компанию с выгодными условиями</t>
   </si>
   <si>
@@ -91,13 +85,66 @@
   </si>
   <si>
     <t>https://alfabank.ru/about/logo/</t>
+  </si>
+  <si>
+    <t>интерфейс сайта</t>
+  </si>
+  <si>
+    <t>сайт страховой компании РЕСО</t>
+  </si>
+  <si>
+    <t>интерфейс сайта, страховая компания</t>
+  </si>
+  <si>
+    <t>интерфейс сайта, SMS</t>
+  </si>
+  <si>
+    <t>Компьютер, сотовый</t>
+  </si>
+  <si>
+    <t>компьютер, сотовый</t>
+  </si>
+  <si>
+    <t>нет выбора фирм оформляющих страховку
+ в городе проживания</t>
+  </si>
+  <si>
+    <t>не корректная работа сервиса. Не подтвержает капча код. 
+Не подходит код варификации, полученный по SMS</t>
+  </si>
+  <si>
+    <t>описать представителей страховых компаний. 
+Дать больше информации по страховым сервисам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сделать сервис более дружелюбным. Исправить пункт варификации. 
+Упростить процедуру варификации. Запоминать хоть некоторые данные на форме при таймауте. Показать пример заполнения формы. Улучшить поддержку (call-center).  </t>
+  </si>
+  <si>
+    <t>Получить страховой полис</t>
+  </si>
+  <si>
+    <t>Получение полиса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возмущение. Два дня попыток зарегистрировать заявку. Написал два письма в техподдержку. 
+Ответа нет. При звонке в техподдержку отсылают на обратную связь. 
+Оформил 6 бланков, они не сохроняют данные, которых очень много. Срабатывает таймаут страницы, все данные приходится заполнять заного. Для потверждения данных, нужно пройти варификацию с  помощью сотого, получить код по SMS. Код состоит из сложных символов, которые не очень разборчивы.  Не подходит код, запрашиваем новый (много запросов кода подтверждения). Ярость, сервис заточен чтобы люди приходили в страховую ногами, получали полис и попутно дополнительные услуги.  10 неудачных попыток. Не выходит сообщения,что код не верный, но код на сайте не проходит капча код.  Не удалось зарегистрироваться. Написал письмо на форме обратной связи. По горячей линии зарегистрировали в страховой компании "Надежда", представленной Альфа страхованием. </t>
+  </si>
+  <si>
+    <t>от безисходности быстро получил
+ полис в другой страховой фирме</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возмущение. Нет широкого выбора страховых сервисов в городе.
+ Странная компания "Надежда", находится в другом городе. Только онлайн сервис РЕСО.  У знакомых получается продлить полис, но в данной ситуации полис создается, а не продливается. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +153,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,15 +183,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,85 +494,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -497,40 +631,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="214.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/CJM.xlsx
+++ b/src/CJM.xlsx
@@ -113,10 +113,6 @@
 Не подходит код варификации, полученный по SMS</t>
   </si>
   <si>
-    <t>описать представителей страховых компаний. 
-Дать больше информации по страховым сервисам.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сделать сервис более дружелюбным. Исправить пункт варификации. 
 Упростить процедуру варификации. Запоминать хоть некоторые данные на форме при таймауте. Показать пример заполнения формы. Улучшить поддержку (call-center).  </t>
   </si>
@@ -138,6 +134,10 @@
   <si>
     <t xml:space="preserve">Возмущение. Нет широкого выбора страховых сервисов в городе.
  Странная компания "Надежда", находится в другом городе. Только онлайн сервис РЕСО.  У знакомых получается продлить полис, но в данной ситуации полис создается, а не продливается. </t>
+  </si>
+  <si>
+    <t>описать в информационных источниках  представителей страховых компаний. 
+Дать больше информации по страховым сервисам.</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -211,6 +211,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -495,7 +501,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +527,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -538,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -580,19 +586,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -614,10 +620,10 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="1"/>
     </row>

--- a/src/CJM.xlsx
+++ b/src/CJM.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Этап</t>
   </si>
@@ -138,6 +138,9 @@
   <si>
     <t>описать в информационных источниках  представителей страховых компаний. 
 Дать больше информации по страховым сервисам.</t>
+  </si>
+  <si>
+    <t>https://design-glory.com/1975/10-luchshih-ar-prilozhenij-dlya-android-i-ios-v-2019-godu</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,6 +679,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
